--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
